--- a/upload files/Requirements.xlsx
+++ b/upload files/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MedFlight Docs\Rebid Shift Tool\5.20.25\5-21-25\upload files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B4E85F-E73A-4C21-98FF-C343486C69B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4171028-4DBB-824F-BA77-2A0CA82BB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="1680" windowWidth="27270" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
+    <workbookView xWindow="30340" yWindow="1680" windowWidth="27280" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -689,21 +689,21 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,12 +734,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -795,17 +795,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1043,12 +1043,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1188,12 +1188,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1221,12 +1221,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1254,12 +1254,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1357,12 +1357,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -1376,12 +1376,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -1395,17 +1395,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -1447,12 +1447,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1466,12 +1466,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -1555,12 +1555,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -1588,21 +1588,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
-      <c r="C73" s="1">
-        <v>4</v>
+      <c r="C73" s="3">
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -1616,12 +1616,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -1725,6 +1725,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -1907,31 +1924,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload files/Requirements.xlsx
+++ b/upload files/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Desktop Clone\CrewOps360\upload files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4171028-4DBB-824F-BA77-2A0CA82BB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34686F5-7651-4B55-908E-DF74BC120869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30340" yWindow="1680" windowWidth="27280" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
+    <workbookView xWindow="1530" yWindow="1680" windowWidth="27270" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +356,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,21 +698,21 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,12 +743,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -767,7 +776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -781,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -795,17 +804,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -819,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -833,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -847,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -861,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -875,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -889,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -903,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -917,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -931,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -945,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -959,7 +968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -987,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1043,12 +1052,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1188,12 +1197,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -1221,26 +1230,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
-        <v>5</v>
+      <c r="C42" s="4">
+        <v>4</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1254,12 +1263,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -1357,12 +1366,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -1376,12 +1385,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -1395,17 +1404,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -1447,12 +1456,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1466,12 +1475,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -1555,12 +1564,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -1616,12 +1625,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -1725,23 +1734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -1924,25 +1916,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1959,4 +1950,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload files/Requirements.xlsx
+++ b/upload files/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Desktop Clone\CrewOps360\upload files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MedFlight Docs\Rebid Shift Tool\5.20.25\5-21-25\upload files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34686F5-7651-4B55-908E-DF74BC120869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBFA67A-B717-4C92-87BC-95EE103D2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1680" windowWidth="27270" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
+    <workbookView xWindow="30330" yWindow="1680" windowWidth="27270" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Chaber</t>
   </si>
   <si>
+    <t>*minus 1x N with Schwan swaps</t>
+  </si>
+  <si>
     <t>Cowart</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>Grant</t>
   </si>
   <si>
+    <t>*minus 2x N with Schwan swaps</t>
+  </si>
+  <si>
     <t>Horan</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
     <t>Moreau</t>
   </si>
   <si>
+    <t>*half the requirement 2*/2 PT</t>
+  </si>
+  <si>
     <t>Moynihan</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
   </si>
   <si>
     <t>DiNardo</t>
+  </si>
+  <si>
+    <t>*minus 1x N moving to extra w/e</t>
   </si>
   <si>
     <t>Doherty</t>
@@ -300,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,7 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,24 +710,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4207F5C1-E9B7-0644-BC5B-91118FE261AD}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="1"/>
+    <col min="6" max="6" width="38.5" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -743,12 +759,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -762,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,10 +791,13 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -790,9 +809,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -804,19 +823,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -828,9 +847,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -842,9 +861,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>6</v>
@@ -856,9 +875,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
@@ -869,10 +888,13 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
@@ -884,9 +906,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -898,9 +920,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -912,9 +934,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -926,9 +948,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -940,9 +962,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -954,9 +976,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -968,9 +990,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
@@ -981,10 +1003,13 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -995,10 +1020,13 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -1010,9 +1038,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1023,10 +1051,13 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -1038,9 +1069,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
@@ -1052,14 +1083,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -1071,9 +1102,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -1084,10 +1115,13 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
@@ -1099,9 +1133,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
@@ -1113,9 +1147,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
@@ -1127,9 +1161,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
@@ -1141,9 +1175,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
@@ -1155,9 +1189,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
@@ -1169,9 +1203,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -1183,9 +1217,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -1197,14 +1231,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
@@ -1216,9 +1250,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1">
         <v>6</v>
@@ -1230,169 +1264,172 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1">
         <v>6</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5">
         <v>4</v>
       </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="1">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="1">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="1">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="1">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="1">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="1">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="1">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
       <c r="D53" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>6</v>
@@ -1404,19 +1441,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
         <v>6</v>
@@ -1428,9 +1465,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1">
         <v>6</v>
@@ -1442,9 +1479,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1">
         <v>6</v>
@@ -1456,14 +1493,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1">
         <v>6</v>
@@ -1475,14 +1512,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
@@ -1494,9 +1531,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1">
         <v>6</v>
@@ -1508,9 +1545,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1">
         <v>6</v>
@@ -1522,9 +1559,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>6</v>
@@ -1536,9 +1573,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1">
         <v>6</v>
@@ -1550,9 +1587,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1">
         <v>6</v>
@@ -1564,14 +1601,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -1583,9 +1620,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -1597,23 +1634,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="5">
         <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -1625,14 +1665,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -1644,9 +1684,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -1658,9 +1698,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -1672,9 +1712,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1686,9 +1726,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -1700,9 +1740,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -1714,9 +1754,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -1734,6 +1774,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -1916,56 +1973,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}"/>
 </file>
--- a/upload files/Requirements.xlsx
+++ b/upload files/Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MedFlight Docs\Rebid Shift Tool\5.20.25\5-21-25\upload files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBFA67A-B717-4C92-87BC-95EE103D2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{8CBCE5F6-3E48-4848-83DF-19ABE61B5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD0B741-A1C0-4E1F-8E26-AE6A6EA61C48}"/>
   <bookViews>
     <workbookView xWindow="30330" yWindow="1680" windowWidth="27270" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>STAFF NAME</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Chaber</t>
   </si>
   <si>
-    <t>*minus 1x N with Schwan swaps</t>
-  </si>
-  <si>
     <t>Cowart</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>Grant</t>
-  </si>
-  <si>
-    <t>*minus 2x N with Schwan swaps</t>
   </si>
   <si>
     <t>Horan</t>
@@ -321,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +325,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +355,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,8 +701,8 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -724,11 +712,11 @@
     <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,12 +747,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,64 +766,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>6</v>
+      <c r="C5" s="5">
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -847,82 +832,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>6</v>
@@ -936,7 +918,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -950,7 +932,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -964,7 +946,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -978,7 +960,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
@@ -992,41 +974,35 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
+      <c r="C21" s="5">
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
-        <v>4</v>
+      <c r="C22" s="5">
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -1040,7 +1016,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1051,13 +1027,13 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>30</v>
+      <c r="F24" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -1071,7 +1047,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
@@ -1085,12 +1061,12 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -1104,7 +1080,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
@@ -1115,13 +1091,13 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>30</v>
+      <c r="F29" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
@@ -1135,7 +1111,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
@@ -1149,7 +1125,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
@@ -1163,7 +1139,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
@@ -1177,7 +1153,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
@@ -1191,7 +1167,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
@@ -1205,7 +1181,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -1219,7 +1195,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -1233,12 +1209,12 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>6</v>
@@ -1252,7 +1228,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>6</v>
@@ -1266,12 +1242,12 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>6</v>
@@ -1285,7 +1261,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>6</v>
@@ -1299,12 +1275,12 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>6</v>
@@ -1318,7 +1294,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>6</v>
@@ -1332,7 +1308,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>6</v>
@@ -1346,7 +1322,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>6</v>
@@ -1360,7 +1336,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>6</v>
@@ -1374,7 +1350,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>6</v>
@@ -1388,7 +1364,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>6</v>
@@ -1402,34 +1378,34 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>6</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>4</v>
       </c>
       <c r="D53" s="1">
         <v>5</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>60</v>
+      <c r="F53" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1">
         <v>6</v>
@@ -1443,17 +1419,17 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1">
         <v>6</v>
@@ -1467,7 +1443,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1">
         <v>6</v>
@@ -1481,7 +1457,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1">
         <v>6</v>
@@ -1495,12 +1471,12 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1">
         <v>6</v>
@@ -1514,12 +1490,12 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
@@ -1533,7 +1509,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1">
         <v>6</v>
@@ -1547,7 +1523,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1">
         <v>6</v>
@@ -1561,7 +1537,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1">
         <v>6</v>
@@ -1575,7 +1551,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1">
         <v>6</v>
@@ -1589,7 +1565,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1">
         <v>6</v>
@@ -1603,12 +1579,12 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -1622,7 +1598,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1">
         <v>6</v>
@@ -1636,24 +1612,24 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>60</v>
+      <c r="F73" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1">
         <v>6</v>
@@ -1667,12 +1643,12 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -1686,7 +1662,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1">
         <v>6</v>
@@ -1700,7 +1676,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1">
         <v>6</v>
@@ -1714,7 +1690,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1728,7 +1704,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1">
         <v>6</v>
@@ -1742,7 +1718,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -1756,7 +1732,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -1774,20 +1750,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1974,11 +1950,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/upload files/Requirements.xlsx
+++ b/upload files/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MedFlight Docs\Rebid Shift Tool\5.20.25\5-21-25\upload files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronbell/Desktop/Git Repo Clone/CrewOps360/upload files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{8CBCE5F6-3E48-4848-83DF-19ABE61B5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD0B741-A1C0-4E1F-8E26-AE6A6EA61C48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A69F84D-7AD8-A946-AF52-B61E4CA7BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="1680" windowWidth="27270" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
+    <workbookView xWindow="30340" yWindow="1680" windowWidth="27280" windowHeight="14520" xr2:uid="{10D55376-794F-6145-963B-6A2FF77FD7A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Noland</t>
   </si>
   <si>
-    <t>Pellegrine</t>
-  </si>
-  <si>
     <t>Phillips K.</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>O’Donnell</t>
   </si>
   <si>
-    <t>Odle</t>
-  </si>
-  <si>
     <t>Pepin</t>
   </si>
   <si>
@@ -300,13 +294,19 @@
   </si>
   <si>
     <t>Young</t>
+  </si>
+  <si>
+    <t>Payton</t>
+  </si>
+  <si>
+    <t>Saraceno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,9 +359,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,22 +698,22 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -747,12 +744,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,21 +763,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -794,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -808,17 +805,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -832,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -846,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -860,21 +857,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -888,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -902,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -916,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -930,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -944,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -958,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -972,35 +969,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1059,12 +1056,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1095,295 +1092,295 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="1">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="1">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="1">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="1">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="1">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="1">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1">
-        <v>6</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="1">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="1">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="1">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="1">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="1">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>6</v>
@@ -1395,88 +1392,88 @@
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="1">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="1">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1">
-        <v>7</v>
-      </c>
-      <c r="D58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="1">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="1">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="B62" s="1">
         <v>6</v>
@@ -1488,42 +1485,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="1">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B65" s="1">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1">
-        <v>7</v>
-      </c>
-      <c r="D65" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B66" s="1">
         <v>6</v>
@@ -1535,84 +1532,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="1">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="1">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="1">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1">
-        <v>5</v>
-      </c>
-      <c r="D69" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B71" s="1">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="1">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1">
-        <v>7</v>
-      </c>
-      <c r="D72" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="B73" s="1">
         <v>6</v>
@@ -1624,73 +1621,73 @@
         <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="1">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="1">
-        <v>6</v>
-      </c>
-      <c r="C76" s="1">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
+      <c r="B78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B77" s="1">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1">
-        <v>7</v>
-      </c>
-      <c r="D77" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="1">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1">
-        <v>7</v>
-      </c>
-      <c r="D78" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1702,37 +1699,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B80" s="1">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="1">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1">
-        <v>7</v>
-      </c>
-      <c r="D81" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B82" s="1">
         <v>6</v>
@@ -1750,23 +1747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F702E5FD63918449A87815BC57997B4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f366023269454ced43510f73883a6d91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xmlns:ns3="b0d30a24-05e2-4154-8fed-e579ddd987b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd01e2e1f35a8420c36650a8355a0ef6" ns2:_="" ns3:_="">
     <xsd:import namespace="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
@@ -1949,14 +1929,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3ae64878-e7bb-4c65-a932-4cdc61fbe63f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+    <ds:schemaRef ds:uri="b0d30a24-05e2-4154-8fed-e579ddd987b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8E94FF-6E53-4E14-A123-F68683276D30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ae64878-e7bb-4c65-a932-4cdc61fbe63f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BB6F95-8083-4B9E-B9D3-CAECB1620A6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC3EAF2-EF9F-4ED7-9C58-0B29683A52D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>